--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H2">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.279063</v>
       </c>
       <c r="O2">
-        <v>0.0007168932569361356</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="P2">
-        <v>0.0007168932569361355</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="Q2">
-        <v>0.2232317958</v>
+        <v>0.643127535562</v>
       </c>
       <c r="R2">
-        <v>2.0090861622</v>
+        <v>5.788147820058</v>
       </c>
       <c r="S2">
-        <v>0.0002648020313379783</v>
+        <v>0.0002003819007360926</v>
       </c>
       <c r="T2">
-        <v>0.0002648020313379782</v>
+        <v>0.0002003819007360926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H3">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I3">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J3">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.261656</v>
       </c>
       <c r="O3">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208546</v>
       </c>
       <c r="P3">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208545</v>
       </c>
       <c r="Q3">
-        <v>0.2093073562666667</v>
+        <v>0.6030114291217777</v>
       </c>
       <c r="R3">
-        <v>1.8837662064</v>
+        <v>5.427102862096</v>
       </c>
       <c r="S3">
-        <v>0.0002482845820182899</v>
+        <v>0.0001878827598750212</v>
       </c>
       <c r="T3">
-        <v>0.0002482845820182898</v>
+        <v>0.0001878827598750212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H4">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I4">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J4">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.34898433333333</v>
+        <v>127.2007906666667</v>
       </c>
       <c r="N4">
-        <v>115.046953</v>
+        <v>381.602372</v>
       </c>
       <c r="O4">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722639</v>
       </c>
       <c r="P4">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722638</v>
       </c>
       <c r="Q4">
-        <v>92.02989260313335</v>
+        <v>879.439384902239</v>
       </c>
       <c r="R4">
-        <v>828.2690334282001</v>
+        <v>7914.954464120152</v>
       </c>
       <c r="S4">
-        <v>0.1091677035423718</v>
+        <v>0.2740105590019511</v>
       </c>
       <c r="T4">
-        <v>0.1091677035423718</v>
+        <v>0.2740105590019511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H5">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,22 +750,22 @@
         <v>0.166638</v>
       </c>
       <c r="O5">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="P5">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="Q5">
-        <v>0.1332992908</v>
+        <v>0.3840333052786667</v>
       </c>
       <c r="R5">
-        <v>1.1996936172</v>
+        <v>3.456299747508</v>
       </c>
       <c r="S5">
-        <v>0.0001581222910170751</v>
+        <v>0.0001196548420065039</v>
       </c>
       <c r="T5">
-        <v>0.000158122291017075</v>
+        <v>0.0001196548420065039</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H6">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I6">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J6">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>91.17094899999999</v>
+        <v>79.830111</v>
       </c>
       <c r="N6">
-        <v>273.512847</v>
+        <v>239.490333</v>
       </c>
       <c r="O6">
-        <v>0.7026353034967191</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="P6">
-        <v>0.702635303496719</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="Q6">
-        <v>218.7920434102</v>
+        <v>551.928516690542</v>
       </c>
       <c r="R6">
-        <v>1969.1283906918</v>
+        <v>4967.356650214878</v>
       </c>
       <c r="S6">
-        <v>0.2595355080488408</v>
+        <v>0.1719666460063131</v>
       </c>
       <c r="T6">
-        <v>0.2595355080488407</v>
+        <v>0.1719666460063131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I7">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J7">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>0.279063</v>
       </c>
       <c r="O7">
-        <v>0.0007168932569361356</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="P7">
-        <v>0.0007168932569361355</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="Q7">
         <v>0.002928642157</v>
@@ -886,10 +886,10 @@
         <v>0.026357779413</v>
       </c>
       <c r="S7">
-        <v>3.474014037545265E-06</v>
+        <v>9.124891247001131E-07</v>
       </c>
       <c r="T7">
-        <v>3.474014037545264E-06</v>
+        <v>9.12489124700113E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I8">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J8">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.261656</v>
       </c>
       <c r="O8">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208546</v>
       </c>
       <c r="P8">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208545</v>
       </c>
       <c r="Q8">
         <v>0.002745963428444445</v>
@@ -948,10 +948,10 @@
         <v>0.024713670856</v>
       </c>
       <c r="S8">
-        <v>3.257316867545837E-06</v>
+        <v>8.555711592455208E-07</v>
       </c>
       <c r="T8">
-        <v>3.257316867545836E-06</v>
+        <v>8.555711592455207E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I9">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J9">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.34898433333333</v>
+        <v>127.2007906666667</v>
       </c>
       <c r="N9">
-        <v>115.046953</v>
+        <v>381.602372</v>
       </c>
       <c r="O9">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722639</v>
       </c>
       <c r="P9">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722638</v>
       </c>
       <c r="Q9">
-        <v>1.207366639755889</v>
+        <v>4.004747293085778</v>
       </c>
       <c r="R9">
-        <v>10.866299757803</v>
+        <v>36.04272563777199</v>
       </c>
       <c r="S9">
-        <v>0.001432202512331661</v>
+        <v>0.001247775643527687</v>
       </c>
       <c r="T9">
-        <v>0.001432202512331661</v>
+        <v>0.001247775643527687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I10">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J10">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,10 +1060,10 @@
         <v>0.166638</v>
       </c>
       <c r="O10">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="P10">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="Q10">
         <v>0.001748791748666667</v>
@@ -1072,10 +1072,10 @@
         <v>0.015739125738</v>
       </c>
       <c r="S10">
-        <v>2.074451830548901E-06</v>
+        <v>5.448782631942515E-07</v>
       </c>
       <c r="T10">
-        <v>2.0744518305489E-06</v>
+        <v>5.448782631942515E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I11">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J11">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.17094899999999</v>
+        <v>79.830111</v>
       </c>
       <c r="N11">
-        <v>273.512847</v>
+        <v>239.490333</v>
       </c>
       <c r="O11">
-        <v>0.7026353034967191</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="P11">
-        <v>0.702635303496719</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="Q11">
-        <v>2.870395767999666</v>
+        <v>2.513344604687</v>
       </c>
       <c r="R11">
-        <v>25.83356191199699</v>
+        <v>22.620101442183</v>
       </c>
       <c r="S11">
-        <v>0.003404921003239306</v>
+        <v>0.0007830931522032966</v>
       </c>
       <c r="T11">
-        <v>0.003404921003239304</v>
+        <v>0.0007830931522032966</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H12">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I12">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J12">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.279063</v>
       </c>
       <c r="O12">
-        <v>0.0007168932569361356</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="P12">
-        <v>0.0007168932569361355</v>
+        <v>0.0004487986043333653</v>
       </c>
       <c r="Q12">
-        <v>0.378190549587</v>
+        <v>0.7943670307060001</v>
       </c>
       <c r="R12">
-        <v>3.403714946283</v>
+        <v>7.149303276354</v>
       </c>
       <c r="S12">
-        <v>0.0004486172115606121</v>
+        <v>0.0002475042144725726</v>
       </c>
       <c r="T12">
-        <v>0.0004486172115606121</v>
+        <v>0.0002475042144725726</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H13">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.261656</v>
       </c>
       <c r="O13">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208546</v>
       </c>
       <c r="P13">
-        <v>0.0006721758958976341</v>
+        <v>0.0004208040751208545</v>
       </c>
       <c r="Q13">
-        <v>0.3546003104773333</v>
+        <v>0.7448171193831111</v>
       </c>
       <c r="R13">
-        <v>3.191402794296</v>
+        <v>6.703354074448</v>
       </c>
       <c r="S13">
-        <v>0.0004206339970117984</v>
+        <v>0.0002320657440865878</v>
       </c>
       <c r="T13">
-        <v>0.0004206339970117984</v>
+        <v>0.0002320657440865878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H14">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I14">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J14">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.34898433333333</v>
+        <v>127.2007906666667</v>
       </c>
       <c r="N14">
-        <v>115.046953</v>
+        <v>381.602372</v>
       </c>
       <c r="O14">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722639</v>
       </c>
       <c r="P14">
-        <v>0.29554754602634</v>
+        <v>0.6137059085722638</v>
       </c>
       <c r="Q14">
-        <v>155.9134331078637</v>
+        <v>1086.250571218709</v>
       </c>
       <c r="R14">
-        <v>1403.220897970773</v>
+        <v>9776.255140968377</v>
       </c>
       <c r="S14">
-        <v>0.1849476399716365</v>
+        <v>0.3384475739267851</v>
       </c>
       <c r="T14">
-        <v>0.1849476399716365</v>
+        <v>0.338447573926785</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H15">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I15">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J15">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,22 +1370,22 @@
         <v>0.166638</v>
       </c>
       <c r="O15">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="P15">
-        <v>0.0004280813241071864</v>
+        <v>0.0002679928970479904</v>
       </c>
       <c r="Q15">
-        <v>0.225830428262</v>
+        <v>0.4743435470226667</v>
       </c>
       <c r="R15">
-        <v>2.032473854358</v>
+        <v>4.269091923204</v>
       </c>
       <c r="S15">
-        <v>0.0002678845812595625</v>
+        <v>0.0001477931767782922</v>
       </c>
       <c r="T15">
-        <v>0.0002678845812595625</v>
+        <v>0.0001477931767782922</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H16">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.17094899999999</v>
+        <v>79.830111</v>
       </c>
       <c r="N16">
-        <v>273.512847</v>
+        <v>239.490333</v>
       </c>
       <c r="O16">
-        <v>0.7026353034967191</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="P16">
-        <v>0.702635303496719</v>
+        <v>0.385156495851234</v>
       </c>
       <c r="Q16">
-        <v>370.6688952890029</v>
+        <v>681.7214202814461</v>
       </c>
       <c r="R16">
-        <v>3336.020057601026</v>
+        <v>6135.492782533014</v>
       </c>
       <c r="S16">
-        <v>0.4396948744446391</v>
+        <v>0.2124067566927175</v>
       </c>
       <c r="T16">
-        <v>0.4396948744446391</v>
+        <v>0.2124067566927175</v>
       </c>
     </row>
   </sheetData>
